--- a/Labs/Lab04/mark_lab04.xlsx
+++ b/Labs/Lab04/mark_lab04.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="52">
   <si>
     <t>Tổng điểm cuối</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t xml:space="preserve"> - không vẽ được các trường hợp khác 3 4 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - chưa nộp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - chưa nộp</t>
   </si>
 </sst>
 </file>
@@ -337,7 +343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -696,12 +702,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -793,33 +830,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -831,6 +841,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1149,7 +1195,7 @@
   <dimension ref="A2:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,65 +1210,65 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="45"/>
-      <c r="N6" s="48" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="53"/>
+      <c r="N6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="50"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="58"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
@@ -1240,10 +1286,10 @@
       <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="43" t="s">
         <v>42</v>
       </c>
       <c r="H7" s="25" t="s">
@@ -1276,10 +1322,10 @@
       <c r="E8" s="12">
         <v>15</v>
       </c>
-      <c r="F8" s="53">
-        <v>15</v>
-      </c>
-      <c r="G8" s="53">
+      <c r="F8" s="44">
+        <v>15</v>
+      </c>
+      <c r="G8" s="44">
         <v>15</v>
       </c>
       <c r="H8" s="27">
@@ -1297,7 +1343,7 @@
         <v>24</v>
       </c>
       <c r="Q8" s="19" t="str">
-        <f ca="1">HYPERLINK(HYPERLINK(CONCATENATE("#",O8,"!A1")),CONCATENATE(INDIRECT("'"&amp;O8&amp;"'!B12"), "/","100"))</f>
+        <f t="shared" ref="Q8:Q16" ca="1" si="0">HYPERLINK(HYPERLINK(CONCATENATE("#",O8,"!A1")),CONCATENATE(INDIRECT("'"&amp;O8&amp;"'!B12"), "/","100"))</f>
         <v>65/100</v>
       </c>
       <c r="R8" s="1" t="s">
@@ -1312,15 +1358,15 @@
         <v>2</v>
       </c>
       <c r="O9" s="4" t="str">
-        <f t="shared" ref="O9:O16" si="0">TEXT(N9,"0")</f>
+        <f t="shared" ref="O9:O16" si="1">TEXT(N9,"0")</f>
         <v>2</v>
       </c>
       <c r="P9" s="14" t="s">
         <v>25</v>
       </c>
       <c r="Q9" s="19" t="str">
-        <f ca="1">HYPERLINK(HYPERLINK(CONCATENATE("#",O9,"!A1")),CONCATENATE(INDIRECT("'"&amp;O9&amp;"'!B12"), "/","100"))</f>
-        <v>100/100</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0/100</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>16</v>
@@ -1334,15 +1380,15 @@
         <v>3</v>
       </c>
       <c r="O10" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="P10" s="15" t="s">
         <v>26</v>
       </c>
       <c r="Q10" s="19" t="str">
-        <f ca="1">HYPERLINK(HYPERLINK(CONCATENATE("#",O10,"!A1")),CONCATENATE(INDIRECT("'"&amp;O10&amp;"'!B12"), "/","100"))</f>
-        <v>100/100</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0/100</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>17</v>
@@ -1356,15 +1402,15 @@
         <v>4</v>
       </c>
       <c r="O11" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="P11" s="14" t="s">
         <v>27</v>
       </c>
       <c r="Q11" s="19" t="str">
-        <f ca="1">HYPERLINK(HYPERLINK(CONCATENATE("#",O11,"!A1")),CONCATENATE(INDIRECT("'"&amp;O11&amp;"'!B12"), "/","100"))</f>
-        <v>100/100</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0/100</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>18</v>
@@ -1378,15 +1424,15 @@
         <v>5</v>
       </c>
       <c r="O12" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="P12" s="15" t="s">
         <v>28</v>
       </c>
       <c r="Q12" s="19" t="str">
-        <f ca="1">HYPERLINK(HYPERLINK(CONCATENATE("#",O12,"!A1")),CONCATENATE(INDIRECT("'"&amp;O12&amp;"'!B12"), "/","100"))</f>
-        <v>100/100</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0/100</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>19</v>
@@ -1400,15 +1446,15 @@
         <v>6</v>
       </c>
       <c r="O13" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="P13" s="14" t="s">
         <v>29</v>
       </c>
       <c r="Q13" s="19" t="str">
-        <f ca="1">HYPERLINK(HYPERLINK(CONCATENATE("#",O13,"!A1")),CONCATENATE(INDIRECT("'"&amp;O13&amp;"'!B12"), "/","100"))</f>
-        <v>100/100</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0/100</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>20</v>
@@ -1422,14 +1468,14 @@
         <v>7</v>
       </c>
       <c r="O14" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>30</v>
       </c>
       <c r="Q14" s="19" t="str">
-        <f ca="1">HYPERLINK(HYPERLINK(CONCATENATE("#",O14,"!A1")),CONCATENATE(INDIRECT("'"&amp;O14&amp;"'!B12"), "/","100"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100/100</v>
       </c>
       <c r="R14" s="1" t="s">
@@ -1441,14 +1487,14 @@
         <v>8</v>
       </c>
       <c r="O15" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="P15" s="14" t="s">
         <v>31</v>
       </c>
       <c r="Q15" s="19" t="str">
-        <f ca="1">HYPERLINK(HYPERLINK(CONCATENATE("#",O15,"!A1")),CONCATENATE(INDIRECT("'"&amp;O15&amp;"'!B12"), "/","100"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>30/100</v>
       </c>
       <c r="R15" s="1" t="s">
@@ -1460,15 +1506,15 @@
         <v>9</v>
       </c>
       <c r="O16" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="P16" s="22" t="s">
         <v>32</v>
       </c>
       <c r="Q16" s="23" t="str">
-        <f ca="1">HYPERLINK(HYPERLINK(CONCATENATE("#",O16,"!A1")),CONCATENATE(INDIRECT("'"&amp;O16&amp;"'!B12"), "/","100"))</f>
-        <v>100/100</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0/100</v>
       </c>
       <c r="S16" t="s">
         <v>39</v>
@@ -1528,7 +1574,7 @@
   <dimension ref="A2:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,13 +1585,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="str">
+      <c r="A2" s="54" t="str">
         <f>HOME!P16</f>
         <v>Nguyễn Hữu Nhân</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -1577,12 +1623,14 @@
         <v>13</v>
       </c>
       <c r="B5" s="28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C5" s="28">
         <v>10</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="59" t="s">
+        <v>50</v>
+      </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1590,12 +1638,12 @@
         <v>14</v>
       </c>
       <c r="B6" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C6" s="29">
         <v>15</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="60"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1603,60 +1651,60 @@
         <v>15</v>
       </c>
       <c r="B7" s="28">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C7" s="28">
         <v>15</v>
       </c>
-      <c r="D7" s="33"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C8" s="29">
         <v>15</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="36">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C9" s="36">
         <v>15</v>
       </c>
-      <c r="D9" s="54"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="56">
-        <v>15</v>
-      </c>
-      <c r="C10" s="57">
-        <v>15</v>
-      </c>
-      <c r="D10" s="58"/>
+      <c r="B10" s="47">
+        <v>0</v>
+      </c>
+      <c r="C10" s="48">
+        <v>15</v>
+      </c>
+      <c r="D10" s="60"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="56">
-        <v>15</v>
-      </c>
-      <c r="C11" s="57">
-        <v>15</v>
-      </c>
-      <c r="D11" s="58"/>
+      <c r="B11" s="47">
+        <v>0</v>
+      </c>
+      <c r="C11" s="48">
+        <v>15</v>
+      </c>
+      <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
@@ -1664,7 +1712,7 @@
       </c>
       <c r="B12" s="38">
         <f>SUM(B5:B11)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C12" s="39">
         <f>SUM(C5:C11)</f>
@@ -1672,8 +1720,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="D5:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1696,13 +1745,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="str">
+      <c r="A2" s="54" t="str">
         <f>HOME!P8</f>
         <v>Vũ Đức Minh</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -1791,33 +1840,33 @@
       <c r="C9" s="36">
         <v>15</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="45" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="56">
-        <v>15</v>
-      </c>
-      <c r="C10" s="57">
-        <v>15</v>
-      </c>
-      <c r="D10" s="58"/>
+      <c r="B10" s="47">
+        <v>15</v>
+      </c>
+      <c r="C10" s="48">
+        <v>15</v>
+      </c>
+      <c r="D10" s="49"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="56">
-        <v>0</v>
-      </c>
-      <c r="C11" s="57">
-        <v>15</v>
-      </c>
-      <c r="D11" s="58" t="s">
+      <c r="B11" s="47">
+        <v>0</v>
+      </c>
+      <c r="C11" s="48">
+        <v>15</v>
+      </c>
+      <c r="D11" s="49" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1849,7 +1898,7 @@
   <dimension ref="A2:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,13 +1909,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="str">
+      <c r="A2" s="54" t="str">
         <f>HOME!P9</f>
         <v>Uông Minh Đức</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -1898,12 +1947,14 @@
         <v>13</v>
       </c>
       <c r="B5" s="28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C5" s="28">
         <v>10</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="59" t="s">
+        <v>50</v>
+      </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1911,12 +1962,12 @@
         <v>14</v>
       </c>
       <c r="B6" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C6" s="29">
         <v>15</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="60"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1924,81 +1975,243 @@
         <v>15</v>
       </c>
       <c r="B7" s="28">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C7" s="28">
         <v>15</v>
       </c>
-      <c r="D7" s="33"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C8" s="29">
         <v>15</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="36">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C9" s="36">
         <v>15</v>
       </c>
-      <c r="D9" s="54"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="56">
-        <v>15</v>
-      </c>
-      <c r="C10" s="57">
-        <v>15</v>
-      </c>
-      <c r="D10" s="58"/>
+      <c r="B10" s="47">
+        <v>0</v>
+      </c>
+      <c r="C10" s="48">
+        <v>15</v>
+      </c>
+      <c r="D10" s="60"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="56">
-        <v>15</v>
-      </c>
-      <c r="C11" s="57">
-        <v>15</v>
-      </c>
-      <c r="D11" s="58"/>
+      <c r="B11" s="47">
+        <v>0</v>
+      </c>
+      <c r="C11" s="48">
+        <v>15</v>
+      </c>
+      <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="38">
+        <f xml:space="preserve"> SUM(B5:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="39">
+        <f>SUM(C5:C11)</f>
         <v>100</v>
       </c>
-      <c r="C12" s="39">
-        <v>100</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="D5:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="80" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="54" t="str">
+        <f>HOME!P10</f>
+        <v>Nguyễn Huy Hùng</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28">
+        <v>10</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="29">
+        <v>0</v>
+      </c>
+      <c r="C6" s="29">
+        <v>15</v>
+      </c>
+      <c r="D6" s="60"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="28">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28">
+        <v>15</v>
+      </c>
+      <c r="D7" s="60"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="29">
+        <v>0</v>
+      </c>
+      <c r="C8" s="29">
+        <v>15</v>
+      </c>
+      <c r="D8" s="60"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="36">
+        <v>0</v>
+      </c>
+      <c r="C9" s="36">
+        <v>15</v>
+      </c>
+      <c r="D9" s="60"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="47">
+        <v>0</v>
+      </c>
+      <c r="C10" s="48">
+        <v>15</v>
+      </c>
+      <c r="D10" s="60"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="47">
+        <v>0</v>
+      </c>
+      <c r="C11" s="48">
+        <v>15</v>
+      </c>
+      <c r="D11" s="61"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="38">
+        <f>SUM(B5:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="39">
+        <f>SUM(C5:C11)</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="D5:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M12"/>
   <sheetViews>
@@ -2014,13 +2227,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="str">
-        <f>HOME!P10</f>
-        <v>Nguyễn Huy Hùng</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="A2" s="54" t="str">
+        <f>HOME!P11</f>
+        <v>Đặng Hoàng Mỹ Linh</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -2052,12 +2265,14 @@
         <v>13</v>
       </c>
       <c r="B5" s="28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C5" s="28">
         <v>10</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="59" t="s">
+        <v>50</v>
+      </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2065,12 +2280,12 @@
         <v>14</v>
       </c>
       <c r="B6" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C6" s="29">
         <v>15</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="60"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2078,60 +2293,60 @@
         <v>15</v>
       </c>
       <c r="B7" s="28">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C7" s="28">
         <v>15</v>
       </c>
-      <c r="D7" s="33"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C8" s="29">
         <v>15</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="36">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C9" s="36">
         <v>15</v>
       </c>
-      <c r="D9" s="54"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="56">
-        <v>15</v>
-      </c>
-      <c r="C10" s="57">
-        <v>15</v>
-      </c>
-      <c r="D10" s="58"/>
+      <c r="B10" s="47">
+        <v>0</v>
+      </c>
+      <c r="C10" s="48">
+        <v>15</v>
+      </c>
+      <c r="D10" s="60"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="56">
-        <v>15</v>
-      </c>
-      <c r="C11" s="57">
-        <v>15</v>
-      </c>
-      <c r="D11" s="58"/>
+      <c r="B11" s="47">
+        <v>0</v>
+      </c>
+      <c r="C11" s="48">
+        <v>15</v>
+      </c>
+      <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
@@ -2139,7 +2354,7 @@
       </c>
       <c r="B12" s="38">
         <f>SUM(B5:B11)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C12" s="39">
         <f>SUM(C5:C11)</f>
@@ -2147,19 +2362,20 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="D5:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2170,13 +2386,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="str">
-        <f>HOME!P11</f>
-        <v>Đặng Hoàng Mỹ Linh</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="A2" s="54" t="str">
+        <f>HOME!P12</f>
+        <v>Nguyễn Văn Tuấn</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -2186,6 +2402,9 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2208,12 +2427,14 @@
         <v>13</v>
       </c>
       <c r="B5" s="28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C5" s="28">
         <v>10</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="59" t="s">
+        <v>50</v>
+      </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2221,12 +2442,12 @@
         <v>14</v>
       </c>
       <c r="B6" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C6" s="29">
         <v>15</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="60"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2234,60 +2455,60 @@
         <v>15</v>
       </c>
       <c r="B7" s="28">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C7" s="28">
         <v>15</v>
       </c>
-      <c r="D7" s="33"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C8" s="29">
         <v>15</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="36">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C9" s="36">
         <v>15</v>
       </c>
-      <c r="D9" s="54"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="56">
-        <v>15</v>
-      </c>
-      <c r="C10" s="57">
-        <v>15</v>
-      </c>
-      <c r="D10" s="58"/>
+      <c r="B10" s="47">
+        <v>0</v>
+      </c>
+      <c r="C10" s="48">
+        <v>15</v>
+      </c>
+      <c r="D10" s="60"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="56">
-        <v>15</v>
-      </c>
-      <c r="C11" s="57">
-        <v>15</v>
-      </c>
-      <c r="D11" s="58"/>
+      <c r="B11" s="47">
+        <v>0</v>
+      </c>
+      <c r="C11" s="48">
+        <v>15</v>
+      </c>
+      <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
@@ -2295,7 +2516,7 @@
       </c>
       <c r="B12" s="38">
         <f>SUM(B5:B11)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C12" s="39">
         <f>SUM(C5:C11)</f>
@@ -2303,19 +2524,20 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="D5:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2326,13 +2548,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="str">
-        <f>HOME!P12</f>
-        <v>Nguyễn Văn Tuấn</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="A2" s="54" t="str">
+        <f>HOME!P13</f>
+        <v>Lưu Gia Hưng</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -2342,9 +2564,6 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2367,12 +2586,14 @@
         <v>13</v>
       </c>
       <c r="B5" s="28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C5" s="28">
         <v>10</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="59" t="s">
+        <v>51</v>
+      </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2380,12 +2601,12 @@
         <v>14</v>
       </c>
       <c r="B6" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C6" s="29">
         <v>15</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="60"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2393,60 +2614,60 @@
         <v>15</v>
       </c>
       <c r="B7" s="28">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C7" s="28">
         <v>15</v>
       </c>
-      <c r="D7" s="33"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C8" s="29">
         <v>15</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="36">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C9" s="36">
         <v>15</v>
       </c>
-      <c r="D9" s="54"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="56">
-        <v>15</v>
-      </c>
-      <c r="C10" s="57">
-        <v>15</v>
-      </c>
-      <c r="D10" s="58"/>
+      <c r="B10" s="47">
+        <v>0</v>
+      </c>
+      <c r="C10" s="48">
+        <v>15</v>
+      </c>
+      <c r="D10" s="60"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="56">
-        <v>15</v>
-      </c>
-      <c r="C11" s="57">
-        <v>15</v>
-      </c>
-      <c r="D11" s="58"/>
+      <c r="B11" s="47">
+        <v>0</v>
+      </c>
+      <c r="C11" s="48">
+        <v>15</v>
+      </c>
+      <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
@@ -2454,7 +2675,7 @@
       </c>
       <c r="B12" s="38">
         <f>SUM(B5:B11)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C12" s="39">
         <f>SUM(C5:C11)</f>
@@ -2462,164 +2683,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="80" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="str">
-        <f>HOME!P13</f>
-        <v>Lưu Gia Hưng</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="28">
-        <v>10</v>
-      </c>
-      <c r="C5" s="28">
-        <v>10</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="29">
-        <v>15</v>
-      </c>
-      <c r="C6" s="29">
-        <v>15</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="28">
-        <v>15</v>
-      </c>
-      <c r="C7" s="28">
-        <v>15</v>
-      </c>
-      <c r="D7" s="33"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="29">
-        <v>15</v>
-      </c>
-      <c r="C8" s="29">
-        <v>15</v>
-      </c>
-      <c r="D8" s="34"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="36">
-        <v>15</v>
-      </c>
-      <c r="C9" s="36">
-        <v>15</v>
-      </c>
-      <c r="D9" s="54"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="56">
-        <v>15</v>
-      </c>
-      <c r="C10" s="57">
-        <v>15</v>
-      </c>
-      <c r="D10" s="58"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="56">
-        <v>15</v>
-      </c>
-      <c r="C11" s="57">
-        <v>15</v>
-      </c>
-      <c r="D11" s="58"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="38">
-        <f>SUM(B5:B11)</f>
-        <v>100</v>
-      </c>
-      <c r="C12" s="39">
-        <f>SUM(C5:C11)</f>
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="D5:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2639,13 +2705,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="str">
+      <c r="A2" s="54" t="str">
         <f>HOME!P14</f>
         <v>Bùi Nhật Minh</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -2732,31 +2798,31 @@
       <c r="C9" s="36">
         <v>15</v>
       </c>
-      <c r="D9" s="54"/>
+      <c r="D9" s="45"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="56">
-        <v>15</v>
-      </c>
-      <c r="C10" s="57">
-        <v>15</v>
-      </c>
-      <c r="D10" s="58"/>
+      <c r="B10" s="47">
+        <v>15</v>
+      </c>
+      <c r="C10" s="48">
+        <v>15</v>
+      </c>
+      <c r="D10" s="49"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="56">
-        <v>15</v>
-      </c>
-      <c r="C11" s="57">
-        <v>15</v>
-      </c>
-      <c r="D11" s="58"/>
+      <c r="B11" s="47">
+        <v>15</v>
+      </c>
+      <c r="C11" s="48">
+        <v>15</v>
+      </c>
+      <c r="D11" s="49"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
@@ -2795,13 +2861,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="str">
+      <c r="A2" s="54" t="str">
         <f>HOME!P15</f>
         <v>Nguyễn Việt Anh</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -2896,35 +2962,35 @@
       <c r="C9" s="36">
         <v>15</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="45" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="56">
+      <c r="B10" s="47">
         <v>5</v>
       </c>
-      <c r="C10" s="57">
-        <v>15</v>
-      </c>
-      <c r="D10" s="58" t="s">
+      <c r="C10" s="48">
+        <v>15</v>
+      </c>
+      <c r="D10" s="49" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="56">
-        <v>15</v>
-      </c>
-      <c r="C11" s="57">
-        <v>15</v>
-      </c>
-      <c r="D11" s="58"/>
+      <c r="B11" s="47">
+        <v>15</v>
+      </c>
+      <c r="C11" s="48">
+        <v>15</v>
+      </c>
+      <c r="D11" s="49"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
